--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.63</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.63</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.42</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.74</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4307</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.43</v>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005269</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1913,7 +1914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1924,17 +1925,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1944,14 +1965,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.3</v>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1960,14 +2003,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.43</v>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1976,14 +2041,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7575</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1992,14 +2079,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.19</v>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2008,13 +2117,395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>4.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2530,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>4.3</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2546,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>9.43</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5">
@@ -2467,14 +2562,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="6">
@@ -2483,14 +2578,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -2499,13 +2594,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.26</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1755</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0862</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.26</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -589,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,73 +656,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>002860</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>38.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1132</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -721,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -772,36 +750,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>010717</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源优质企业6个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>58.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1252</t>
+          <t>2.1477</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -810,36 +788,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>25.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>67.84</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0840</t>
+          <t>1.1316</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -848,36 +826,340 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0233</t>
+          <t>0.7575</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +1194,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -942,36 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.00</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4307</t>
+          <t>1.7729</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -980,36 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.48</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>87.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8349</t>
+          <t>1.5018</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1018,36 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7471</t>
+          <t>0.2270</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1056,36 +1338,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5273</t>
+          <t>0.1930</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1094,32 +1376,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006775</t>
+          <t>011287</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源优质成长混合</t>
+          <t>前海开源聚慧三年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>87.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2575</t>
+          <t>0.1894</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1132,36 +1414,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011287</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源聚慧三年持有期混合</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.39</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2204</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1170,36 +1452,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006216</t>
+          <t>007674</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合A</t>
+          <t>工银瑞信产业升级股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1658</t>
+          <t>0.1418</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1208,36 +1490,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0952</t>
+          <t>0.0510</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1246,36 +1528,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006217</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>0.0435</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1284,36 +1566,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>007675</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>工银瑞信产业升级股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1322,36 +1604,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1360,36 +1642,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>65.46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1706,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1454,36 +1736,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>010717</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>前海开源优质企业6个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>36.48</t>
+          <t>81.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.28</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.7729</t>
+          <t>4.4307</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1492,36 +1774,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.92</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5018</t>
+          <t>1.8349</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1530,36 +1812,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006775</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源优质成长混合</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>26.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.68</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2270</t>
+          <t>1.7471</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1568,36 +1850,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>010718</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>前海开源优质企业6个月持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>93.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1930</t>
+          <t>0.5273</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1606,32 +1888,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011287</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源聚慧三年持有期混合</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>89.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.38</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1894</t>
+          <t>0.2575</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1644,36 +1926,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006216</t>
+          <t>011287</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合A</t>
+          <t>前海开源聚慧三年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>91.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1461</t>
+          <t>0.2204</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1682,36 +1964,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007674</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信产业升级股票A</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1418</t>
+          <t>0.1658</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1720,36 +2002,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006217</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0510</t>
+          <t>0.0952</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1758,36 +2040,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>91.86</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0435</t>
+          <t>0.0630</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1796,36 +2078,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007675</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信产业升级股票C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>94.79</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0136</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1834,36 +2116,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0132</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1872,36 +2154,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005269</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65.46</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>8.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +2197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1936,7 +2218,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1966,36 +2248,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>58.52</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1477</t>
+          <t>0.1252</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2004,36 +2286,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.26</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67.84</t>
+          <t>90.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1316</t>
+          <t>0.0840</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2042,340 +2324,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.10</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7575</t>
+          <t>0.0233</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010718</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2569</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>68.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1630</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011287</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源聚慧三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>68.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1401</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>67.45</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0833</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011018</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城安泽回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>34.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>67.45</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011019</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城安泽回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>34.82</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002860</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.26</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2389,7 +2367,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2410,7 +2388,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2440,35 +2418,73 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002860</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38.59</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.1132</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2483,144 +2499,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.26</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>4.3</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>9.43</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014615</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1160,518 +1309,6 @@
       </c>
       <c r="H12" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001837</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7729</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.92</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5018</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2270</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011355</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1930</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011287</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源聚慧三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1894</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1461</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007674</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1418</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007675</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011356</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>65.46</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1343,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1736,36 +1373,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.00</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4307</t>
+          <t>1.7729</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1774,36 +1411,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.48</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>87.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8349</t>
+          <t>1.5018</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1812,36 +1449,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7471</t>
+          <t>0.2270</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1850,36 +1487,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5273</t>
+          <t>0.1930</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1888,32 +1525,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006775</t>
+          <t>011287</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源优质成长混合</t>
+          <t>前海开源聚慧三年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>87.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2575</t>
+          <t>0.1894</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1926,36 +1563,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011287</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源聚慧三年持有期混合</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.39</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2204</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1964,36 +1601,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006216</t>
+          <t>007674</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合A</t>
+          <t>工银瑞信产业升级股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1658</t>
+          <t>0.1418</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2002,36 +1639,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0952</t>
+          <t>0.0510</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2040,36 +1677,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006217</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>0.0435</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2078,36 +1715,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>007675</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>工银瑞信产业升级股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2116,36 +1753,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2154,36 +1791,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>65.46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2192,6 +1829,518 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4307</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2361,7 +2510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +2642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03958-东方证券.xlsx
+++ b/数据整理/stocks/港股/03958-东方证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>4.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.3</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>9.43</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.23</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -616,7 +633,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014615</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014616</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>尚正正鑫混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -748,7 +1067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -842,7 +1161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1309,518 +1628,6 @@
       </c>
       <c r="H12" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001837</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36.48</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.7729</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.92</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5018</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2270</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011355</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1930</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011287</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源聚慧三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1894</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1461</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007674</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1418</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007675</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011356</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005269</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞港股通量化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>65.46</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1662,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1885,36 +1692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010717</t>
+          <t>001837</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合A</t>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.00</t>
+          <t>36.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4307</t>
+          <t>1.7729</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1923,36 +1730,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001837</t>
+          <t>008188</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+          <t>前海开源稳健增长三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.48</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>87.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8349</t>
+          <t>1.5018</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1961,36 +1768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008188</t>
+          <t>006775</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源稳健增长三年持有期混合</t>
+          <t>前海开源优质成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.92</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7471</t>
+          <t>0.2270</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1999,36 +1806,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010718</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源优质企业6个月持有期混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.64</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5273</t>
+          <t>0.1930</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2037,32 +1844,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006775</t>
+          <t>011287</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源优质成长混合</t>
+          <t>前海开源聚慧三年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.39</t>
+          <t>87.21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2575</t>
+          <t>0.1894</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2075,36 +1882,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011287</t>
+          <t>006216</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源聚慧三年持有期混合</t>
+          <t>前海开源价值成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.39</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2204</t>
+          <t>0.1461</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2113,36 +1920,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006216</t>
+          <t>007674</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合A</t>
+          <t>工银瑞信产业升级股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1658</t>
+          <t>0.1418</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -2151,36 +1958,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>006217</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>前海开源价值成长灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0952</t>
+          <t>0.0510</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2189,36 +1996,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006217</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源价值成长灵活配置混合C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0630</t>
+          <t>0.0435</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2227,36 +2034,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>007675</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>工银瑞信产业升级股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.0136</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2265,36 +2072,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0312</t>
+          <t>0.0132</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2303,36 +2110,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>005269</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>华泰柏瑞港股通量化灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>65.46</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8.00</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2341,6 +2148,518 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4307</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8349</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7471</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010718</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源优质企业6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2510,7 +2829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2640,136 +2959,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1755</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0862</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>